--- a/medicine/Enfance/Claude_Boujon/Claude_Boujon.xlsx
+++ b/medicine/Enfance/Claude_Boujon/Claude_Boujon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Boujon (né le 28 juillet 1930 à Paris, décédé le 13 septembre 1995), est un auteur et illustrateur de littérature de jeunesse français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Paris le 28 juillet 1930, Claude Boujon entama sa carrière en tant que photograveur. Il rejoignit en 1954 l'équipe du magazine Vaillant [1], qui devint ensuite Pif Gadget. Il en fut directeur jusqu'en 1972. 
-Il se consacra alors pendant plusieurs années à l'illustration et la création artistique (peinture, sculpture...) fortement marquées par l’esthétique du Groupe Cobra[1]. Il participa à des expositions à la galerie L'Œil de bœuf de Cérès Franco et à la galerie Philippe Freignac[2].
-À partir de 1984, il entama la réalisation d'albums pour enfants, publiés par l'École des Loisirs dans la collection Lutin poche[1].
-Décédé le 13 septembre 1995 d'une rupture d'anévrisme[3], il est inhumé dans le cimetière parisien de Bagneux[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Paris le 28 juillet 1930, Claude Boujon entama sa carrière en tant que photograveur. Il rejoignit en 1954 l'équipe du magazine Vaillant , qui devint ensuite Pif Gadget. Il en fut directeur jusqu'en 1972. 
+Il se consacra alors pendant plusieurs années à l'illustration et la création artistique (peinture, sculpture...) fortement marquées par l’esthétique du Groupe Cobra. Il participa à des expositions à la galerie L'Œil de bœuf de Cérès Franco et à la galerie Philippe Freignac.
+À partir de 1984, il entama la réalisation d'albums pour enfants, publiés par l'École des Loisirs dans la collection Lutin poche.
+Décédé le 13 septembre 1995 d'une rupture d'anévrisme, il est inhumé dans le cimetière parisien de Bagneux.
 Il reçut le Prix Bernard Versele à titre posthume en 2003.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'apprenti loup - L'École des loisirs, 1984. - (Lutin poche)
 Le lapin loucheur - L'École des loisirs, 1984. - (Lutin poche)
